--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_4_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_4_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1825327.650299988</v>
+        <v>-1677952.745725069</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14406967.4170008</v>
+        <v>12258327.79560122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809169</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11723518.39474943</v>
+        <v>11815401.2535685</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,10 +665,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>284.9344882440804</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>28.11631013281968</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.76484596498756</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11631013281968</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>57.53523972400048</v>
       </c>
       <c r="F4" t="n">
-        <v>28.11631013281968</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>28.11631013281968</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>198.2651640083665</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.76484596498758</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>227.7864062905906</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>227.7864062905906</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,10 +911,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>32.54576225216843</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>227.7864062905906</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>403.5070686661866</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -984,13 +984,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>145.8990310096446</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1057,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>69.90352643652473</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>227.7864062905906</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>227.7864062905906</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>218.0080577057887</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1148,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>181.1132274164773</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>279.4038957206237</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1303,13 +1303,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>57.03093853158204</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>128.8897627160341</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,25 +1370,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068505</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>354.7444241228305</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,22 +1528,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>1.225713243953517</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>275.0559265444359</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6210704138061</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.4685551105456</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>128.9197986360706</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63.09628120448717</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.89362580705897</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>132.7590956334169</v>
+        <v>96.44420510686564</v>
       </c>
       <c r="T16" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>241.7080026420585</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>243.2197513454118</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4047392545158</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>364.6210704138063</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>134.5782361172334</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>134.4685551105456</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>128.9197986360706</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>63.09628120448717</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.89362580705897</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>132.7590956334169</v>
+        <v>96.44420510686159</v>
       </c>
       <c r="T19" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>243.2197513454118</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.4047392545158</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486154</v>
       </c>
       <c r="C20" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6210704138063</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.4685551105456</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>128.9197986360706</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>63.09628120448717</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.89362580705897</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>132.7590956334169</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>243.2197513454118</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.4047392545158</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6210704138063</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.4685551105456</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>128.9197986360706</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>63.09628120448717</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.89362580705897</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>132.7590956334169</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>243.2197513454118</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.4047392545158</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>364.6210704138063</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.4685551105456</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>128.9197986360706</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>63.09628120448637</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.89362580705897</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>132.7590956334169</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>241.7080026420591</v>
+        <v>151.2189867515112</v>
       </c>
       <c r="V28" t="n">
-        <v>243.2197513454118</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>236.4292784165725</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.4047392545158</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>121.9332546069154</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>11.17736360794291</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448681</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705878</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295134</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C43" t="n">
         <v>134.5782361172335</v>
@@ -3904,7 +3904,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F43" t="n">
         <v>134.4685551105455</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448713</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705893</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295134</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448713</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705893</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>796.3976813292669</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>773.5373553829711</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>754.2851386083754</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>328.308198756233</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>40.49558436827296</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812565</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812565</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812565</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812565</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812565</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>537.6338852249305</v>
       </c>
       <c r="M2" t="n">
-        <v>2.249304810625575</v>
+        <v>1035.070844451735</v>
       </c>
       <c r="N2" t="n">
-        <v>30.08445184211706</v>
+        <v>1532.50780367854</v>
       </c>
       <c r="O2" t="n">
-        <v>30.08445184211706</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="P2" t="n">
-        <v>57.91959887360855</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.75474590510004</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1613.454950206629</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1201.734951374377</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>796.3976813292669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.249304810625575</v>
+        <v>768.2821603572278</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>650.7762568747326</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>546.9362983900176</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>442.2343646629548</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>348.5885343458589</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>254.5347625634629</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>201.1586693257725</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>208.6053122876844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.95979943680427</v>
+        <v>208.6053122876844</v>
       </c>
       <c r="K3" t="n">
-        <v>28.95979943680427</v>
+        <v>706.0422715144892</v>
       </c>
       <c r="L3" t="n">
-        <v>28.95979943680427</v>
+        <v>706.0422715144892</v>
       </c>
       <c r="M3" t="n">
-        <v>28.95979943680427</v>
+        <v>706.0422715144892</v>
       </c>
       <c r="N3" t="n">
-        <v>56.79494646829576</v>
+        <v>1203.479230741294</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>1430.390030594774</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1927.826989821579</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1927.826989821579</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1928.522052467537</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1786.642116765215</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1601.873920684852</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>1396.900781824118</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1200.379404657335</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>1036.902058423998</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>897.2091697772905</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.45024460704886</v>
+        <v>843.3136833157487</v>
       </c>
       <c r="C4" t="n">
-        <v>87.45024460704886</v>
+        <v>843.3136833157487</v>
       </c>
       <c r="D4" t="n">
-        <v>59.04993134157444</v>
+        <v>679.9969104425194</v>
       </c>
       <c r="E4" t="n">
-        <v>59.04993134157444</v>
+        <v>621.8805066809027</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>450.0187324554632</v>
       </c>
       <c r="G4" t="n">
-        <v>30.6496180761</v>
+        <v>283.7617627496953</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>139.9654942578497</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812565</v>
       </c>
       <c r="J4" t="n">
-        <v>30.08445184211706</v>
+        <v>97.68825422228366</v>
       </c>
       <c r="K4" t="n">
-        <v>57.91959887360855</v>
+        <v>324.2158554281208</v>
       </c>
       <c r="L4" t="n">
-        <v>57.91959887360855</v>
+        <v>678.9051767225417</v>
       </c>
       <c r="M4" t="n">
-        <v>57.91959887360855</v>
+        <v>1070.090971692792</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1447.582482568828</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>1803.010611248591</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>1882.84616966552</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906282</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>1962.807686593456</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>1792.672639112591</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>1592.404796679897</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>1312.220348180201</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>1312.220348180201</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>1312.220348180201</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>1069.656451626007</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.45024460704886</v>
+        <v>843.3136833157487</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>519.0321235809952</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C5" t="n">
-        <v>288.9448444995905</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D5" t="n">
-        <v>269.6926277249949</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>39.60534864359026</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>18.52157087339456</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>18.22291250324725</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>18.22291250324725</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22291250324725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>18.22291250324725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>243.7314547309319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>243.7314547309319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>342.5722058250904</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>342.5722058250904</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>342.5722058250904</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>568.0807480527751</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>793.5892902804599</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>911.1456251623624</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>806.7783310355028</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>773.9038237100801</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>543.8165446286755</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>543.8165446286755</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>543.8165446286755</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>536.1369498368268</v>
+        <v>479.799815760546</v>
       </c>
       <c r="Y5" t="n">
-        <v>534.8400838321212</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438.3244799799162</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>320.818576497421</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>216.978618012706</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>112.2766842856432</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>112.2766842856432</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>18.22291250324725</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>18.22291250324725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>25.66955546515909</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>251.1780976928438</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>476.6866399205285</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>476.6866399205285</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>476.6866399205285</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>685.6370829346777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>911.1456251623624</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>911.1456251623624</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>911.1456251623624</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>911.1456251623624</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>911.1456251623624</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>911.1456251623624</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>911.1456251623624</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>911.1456251623624</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>714.6242479955796</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>567.2514893999789</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>567.2514893999789</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.1954756243312</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>18.22291250324725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>18.22291250324725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>18.22291250324725</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>18.22291250324725</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>18.22291250324725</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>18.22291250324725</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>18.22291250324725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>75.71424072740527</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>75.71424072740527</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>301.22278295509</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>526.7313251827748</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>685.6370829346777</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>911.1456251623624</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>911.1456251623624</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>911.1456251623624</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>911.1456251623624</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>840.5360024992061</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>840.5360024992061</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>610.4487234178015</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>610.4487234178015</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="W7" t="n">
-        <v>380.3614443363969</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="X7" t="n">
-        <v>380.3614443363969</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.3614443363969</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.3435071337996</v>
+        <v>312.872393678258</v>
       </c>
       <c r="C8" t="n">
-        <v>99.48318118750379</v>
+        <v>290.0120677319622</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>270.7598509573666</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>248.8233151456282</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>227.7395373754325</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>227.4408790052852</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1229.755298763999</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1229.755298763999</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>947.5291414704393</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.1918714253296</v>
+        <v>732.7207579697881</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2004.447884742823</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1577.547154756123</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.254533941123</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>728.2775940889808</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>369.9498929548084</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>369.9498929548084</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.08151442884326</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.08151442884326</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>787.5898224043424</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1679.598563461278</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1679.598563461278</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N11" t="n">
-        <v>2439.710962780052</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O11" t="n">
-        <v>2439.710962780052</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3147.99024193798</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3604.075721442163</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3604.075721442163</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3499.708427315304</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3499.708427315304</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3241.353517911716</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.353517911716</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3241.353517911716</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2829.633519079463</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2424.296249034353</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.2050054602985</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>521.6991019778033</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>417.8591434930883</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.1572097660255</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.5113794489297</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.4576076665337</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.08151442884326</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>343.7790037084343</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>343.7790037084343</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>343.7790037084343</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M12" t="n">
-        <v>343.7790037084343</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>1235.78774476537</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1798.74983492465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1798.74983492465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1798.74983492465</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1880.769145009353</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.444897570608</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.564961868286</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1472.796765787922</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1267.823626927189</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.302249760406</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>907.8249035270688</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.1320148803612</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>821.2113951445788</v>
+        <v>545.9056190120762</v>
       </c>
       <c r="C13" t="n">
-        <v>821.2113951445784</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D13" t="n">
-        <v>819.9733009587668</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E13" t="n">
-        <v>653.7650951116203</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F13" t="n">
-        <v>481.9033208861808</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>315.6463511804129</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>171.8500826885673</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.5728426530013</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.1004438588385</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>710.7897651532593</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1101.97556012351</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.467070999546</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1834.895199679309</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.49441160121</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.494541841972</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.455928529145</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.32088104828</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.32088104828</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.136432548584</v>
+        <v>1761.542123808053</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.136432548584</v>
+        <v>1479.830656416082</v>
       </c>
       <c r="W13" t="n">
-        <v>1480.284028721097</v>
+        <v>1204.978252588595</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.720132166902</v>
+        <v>962.4143560343998</v>
       </c>
       <c r="Y13" t="n">
-        <v>1011.377363856644</v>
+        <v>736.0715877241419</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>721.4323712815417</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2099.031646519604</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>2437.675861701818</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>91.29483210793288</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>362.9923213875239</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>953.4772479558635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>953.4772479558635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>953.4772479558635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>953.4772479558635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>953.4772479558635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1435.836985825663</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1899.982462688443</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.2312984619909</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>786.2936862223611</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>659.011864230586</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>528.8386092648936</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>393.0117859209083</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>262.7897670965947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>155.028449486203</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>184.1040156910041</v>
+        <v>159.794041629988</v>
       </c>
       <c r="K16" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358252</v>
       </c>
       <c r="L16" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302461</v>
       </c>
       <c r="M16" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100497</v>
       </c>
       <c r="N16" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976533</v>
       </c>
       <c r="O16" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656296</v>
       </c>
       <c r="P16" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q16" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R16" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.146943361583</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2201.842546468938</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.693048850697</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.01653234018</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1473.199079394147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1266.670133721406</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1076.362316292602</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2306.569453365929</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3282.82051185263</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O18" t="n">
-        <v>637.6199587024621</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.2312984619904</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>786.2936862223607</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>659.0118642305856</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>528.8386092648933</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>393.0117859209079</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>262.7897670965942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>155.0284494862028</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>835.9566489090887</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1262.460299238253</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1675.269665473202</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R19" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S19" t="n">
-        <v>2409.146943361583</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2201.842546468938</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1957.693048850696</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1712.016532340179</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1473.199079394147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1266.670133721406</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1076.362316292602</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>649.3560904777429</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1578.98113809702</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>1578.98113809702</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>2555.23219658372</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3400.376846734533</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4108.65612589246</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3767.744219562894</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3407.387820744695</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2662.400453630241</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.29483210793288</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>91.29483210793288</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>681.7797586762724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>681.7797586762724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>681.7797586762724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>681.7797586762724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>719.6392687871653</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1435.836985825663</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1899.982462688443</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.2312984619906</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>786.2936862223606</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>659.0118642305855</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>528.8386092648932</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>393.0117859209078</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G22" t="n">
-        <v>262.7897670965941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>155.0284494862028</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>835.9566489090884</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2543.247039960995</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2409.146943361584</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2201.842546468938</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1957.693048850696</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1712.01653234018</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1473.199079394147</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1266.670133721406</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1076.362316292602</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2555.23219658372</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3400.376846734533</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4108.65612589246</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1101.765435565241</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1817.963152603739</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.2312984619905</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>786.2936862223606</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>659.0118642305855</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>528.8386092648932</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>393.0117859209078</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>262.7897670965941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>184.1040156910042</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>445.9494722557546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>835.9566489090886</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1262.460299238253</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1675.269665473202</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2409.146943361583</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.842546468938</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.693048850696</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1712.016532340179</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1473.199079394147</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1266.670133721406</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1076.362316292602</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1110.521602210686</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>721.4323712815408</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3075.282705006305</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3920.427355157117</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4108.656125892459</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4564.741605396643</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>98.74147506984468</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.23129846199</v>
+        <v>775.7107933313494</v>
       </c>
       <c r="C28" t="n">
-        <v>786.2936862223602</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D28" t="n">
-        <v>659.011864230585</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
-        <v>528.8386092648927</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>393.0117859209074</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>262.7897670965937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>155.0284494862022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2409.146943361583</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2201.842546468937</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.693048850696</v>
+        <v>1716.494894299839</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.016532340179</v>
+        <v>1434.783426907868</v>
       </c>
       <c r="W28" t="n">
-        <v>1473.199079394146</v>
+        <v>1434.783426907868</v>
       </c>
       <c r="X28" t="n">
-        <v>1266.670133721405</v>
+        <v>1192.219530353673</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.362316292601</v>
+        <v>965.8767620434151</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
         <v>2113.800768076615</v>
@@ -6446,7 +6446,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
         <v>839.4070255988736</v>
@@ -6455,13 +6455,13 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6473,25 +6473,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>686.6827951484235</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C31" t="n">
-        <v>686.6827951484235</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D31" t="n">
-        <v>523.3660222751942</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E31" t="n">
-        <v>357.1578164280476</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>357.1578164280476</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6622,7 +6622,7 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>913.0255634586814</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>686.6827951484235</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815414</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2099.031646519604</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701818</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.82051185263</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619898</v>
+        <v>933.2391797598863</v>
       </c>
       <c r="C34" t="n">
-        <v>786.29368622236</v>
+        <v>797.3015675202564</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305848</v>
+        <v>670.0197455284813</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648925</v>
+        <v>539.846490562789</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209072</v>
+        <v>404.0196672188035</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965936</v>
+        <v>273.7976483944898</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862024</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>456.9573535536502</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090885</v>
+        <v>846.9645302069841</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792691</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392366</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468937</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721405</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292601</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181376</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815418</v>
+        <v>721.4323712815408</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6947,40 +6947,40 @@
         <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J36" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K36" t="n">
-        <v>370.4389643494358</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4389643494358</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M36" t="n">
-        <v>370.4389643494358</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N36" t="n">
-        <v>1353.81767574096</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O36" t="n">
-        <v>1353.81767574096</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P36" t="n">
         <v>1353.81767574096</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557544</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090882</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238252</v>
@@ -7132,7 +7132,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7157,55 +7157,55 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K38" t="n">
-        <v>1169.406598900327</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L38" t="n">
-        <v>2099.031646519604</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="M38" t="n">
-        <v>2099.031646519604</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="N38" t="n">
-        <v>2437.675861701817</v>
+        <v>2712.679246189409</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.820511852629</v>
+        <v>3557.823896340221</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010557</v>
+        <v>4266.103175498149</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
@@ -7214,7 +7214,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7245,28 +7245,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J39" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K39" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L39" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="M39" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="N39" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="O39" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="P39" t="n">
         <v>1353.81767574096</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
         <v>184.1040156910041</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7397,7 +7397,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815417</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
@@ -7409,22 +7409,22 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>806.8031400834319</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2740.714289121767</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N41" t="n">
-        <v>2740.714289121767</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="O41" t="n">
-        <v>3585.858939272579</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
         <v>3991.099791010558</v>
@@ -7451,10 +7451,10 @@
         <v>3407.387820744695</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793896</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J42" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K42" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L42" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="M42" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="N42" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="O42" t="n">
-        <v>960.9238909177753</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P42" t="n">
-        <v>1353.81767574096</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q42" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
@@ -7567,19 +7567,19 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910044</v>
+        <v>184.1040156910037</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557549</v>
+        <v>445.9494722557541</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090881</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7591,10 +7591,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
@@ -7625,7 +7625,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7634,55 +7634,55 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793279</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
-        <v>91.29483210793289</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>806.8031400834319</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>2740.714289121767</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N44" t="n">
-        <v>3716.965347608468</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O44" t="n">
-        <v>4562.10999775928</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P44" t="n">
-        <v>4564.741605396644</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
         <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
@@ -7719,25 +7719,25 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793289</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793289</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793289</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="N45" t="n">
-        <v>91.29483210793289</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="O45" t="n">
         <v>719.6392687871653</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090886</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
         <v>1675.269665473201</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7982,25 +7982,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>540.7736174091935</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>539.8928378760024</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>539.7411978110166</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>519.5510565557636</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>62.01294749699718</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>40.06955035784532</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>524.8608088099039</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,19 +8067,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>523.8046031901123</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>252.3747178570508</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>524.2324161813992</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.75306611672156</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>49.47948510062515</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>103.0227788569046</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8216,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>263.5510070853999</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>137.2704054187838</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P5" t="n">
-        <v>265.3617681008219</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>263.9110808951887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>248.397520623924</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>250.1856401239239</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
-        <v>232.4040817631873</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>250.9582960128128</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>249.7051661862918</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>250.3618461820764</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>181.259767391664</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>250.2855937890151</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>480.8559469023526</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,34 +8526,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379011</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>939.3309727931637</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N11" t="n">
-        <v>805.0699251766426</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
@@ -8711,7 +8711,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8763,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>922.3619585740825</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>591.8204656406868</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8933,10 +8933,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>379.3444866548641</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9021,13 +9021,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>509.0028996591719</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>247.0654112290532</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9401,16 +9401,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>233.196721555329</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
@@ -9492,16 +9492,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>498.0882592628462</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>165.4360762348142</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9884,19 +9884,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>227.7054332600718</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,22 +10355,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>379.3444866548641</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>379.3444866548641</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10665,7 +10665,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10674,13 +10674,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1014.65485790195</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,7 +10832,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>379.3444866548631</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,10 +10841,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>337.7796543000475</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
@@ -10917,7 +10917,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11072,10 +11072,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>218.7068825014463</v>
       </c>
       <c r="P41" t="n">
-        <v>446.9095554849576</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11151,16 +11151,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11303,22 +11303,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>40.23355134292235</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,7 +11388,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>657.8632399032651</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>135.9384517484133</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>107.0108840646745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>66.12851586966318</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>160.4578919005435</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.326677470262894</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919085</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991949</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.1636172631876</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>48.31958288295773</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.4170364007673</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>995705.0452768321</v>
+        <v>997558.644234531</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1007247.993704409</v>
+        <v>1024643.188565862</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020753.213706078</v>
+        <v>1024643.188565862</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>802426.3684215478</v>
+        <v>1012716.138925597</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1043080.106360983</v>
+        <v>1012716.138925597</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1043080.106360983</v>
+        <v>1012716.138925596</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1043080.106360983</v>
+        <v>1012716.138925597</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1043080.106360983</v>
+        <v>1012716.138925597</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1043080.106360983</v>
+        <v>1012716.138925597</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1012716.138925597</v>
+        <v>1012716.138925596</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1043080.106360983</v>
+        <v>1047416.989210914</v>
       </c>
     </row>
     <row r="13">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29122.13340055817</v>
+        <v>28390.39877674037</v>
       </c>
       <c r="C2" t="n">
-        <v>29122.13340055814</v>
+        <v>29122.13340055816</v>
       </c>
       <c r="D2" t="n">
         <v>29122.13340055815</v>
       </c>
       <c r="E2" t="n">
-        <v>22266.71931462561</v>
+        <v>28101.52015687238</v>
       </c>
       <c r="F2" t="n">
-        <v>29122.13340055813</v>
+        <v>28101.52015687238</v>
       </c>
       <c r="G2" t="n">
-        <v>29122.13340055814</v>
+        <v>28101.52015687236</v>
       </c>
       <c r="H2" t="n">
-        <v>29122.13340055814</v>
+        <v>28101.52015687237</v>
       </c>
       <c r="I2" t="n">
-        <v>29122.13340055814</v>
+        <v>28101.52015687237</v>
       </c>
       <c r="J2" t="n">
-        <v>29122.13340055815</v>
+        <v>28101.52015687237</v>
       </c>
       <c r="K2" t="n">
         <v>28101.52015687237</v>
       </c>
       <c r="L2" t="n">
-        <v>29122.13340055814</v>
+        <v>29122.13340055813</v>
       </c>
       <c r="M2" t="n">
         <v>29122.13340055814</v>
@@ -26350,10 +26350,10 @@
         <v>29122.13340055812</v>
       </c>
       <c r="O2" t="n">
+        <v>29122.13340055812</v>
+      </c>
+      <c r="P2" t="n">
         <v>29122.13340055814</v>
-      </c>
-      <c r="P2" t="n">
-        <v>29122.13340055813</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>168386.4303908733</v>
       </c>
       <c r="C3" t="n">
-        <v>64507.55493937701</v>
+        <v>17370.2954392137</v>
       </c>
       <c r="D3" t="n">
-        <v>72567.36134028646</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131260.5691270805</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
-        <v>97353.61936459703</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391435</v>
+        <v>131466.0563231698</v>
       </c>
       <c r="K3" t="n">
-        <v>86802.14823139335</v>
+        <v>13837.70917736421</v>
       </c>
       <c r="L3" t="n">
-        <v>52840.20922283721</v>
+        <v>28539.6810981117</v>
       </c>
       <c r="M3" t="n">
-        <v>109554.8194064699</v>
+        <v>145773.7708181577</v>
       </c>
       <c r="N3" t="n">
-        <v>58823.25323982969</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306508.7100712666</v>
+        <v>175744.887829402</v>
       </c>
       <c r="C4" t="n">
-        <v>253652.5321994022</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>45979.37385620479</v>
+        <v>58064.51385187961</v>
       </c>
       <c r="F4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.51385187961</v>
       </c>
       <c r="G4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.5138518796</v>
       </c>
       <c r="H4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="I4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
+        <v>69803.23556604775</v>
+      </c>
+      <c r="M4" t="n">
+        <v>89662.20424840873</v>
+      </c>
+      <c r="N4" t="n">
         <v>89662.20424840874</v>
       </c>
-      <c r="M4" t="n">
-        <v>89662.20424840876</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>89662.20424840873</v>
-      </c>
-      <c r="O4" t="n">
-        <v>89662.20424840876</v>
       </c>
       <c r="P4" t="n">
         <v>89662.20424840876</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64177.26375857549</v>
       </c>
       <c r="C5" t="n">
-        <v>47477.0135024679</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>54781.95096592088</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="J5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="L5" t="n">
+        <v>80749.19025122613</v>
+      </c>
+      <c r="M5" t="n">
+        <v>72383.20046482541</v>
+      </c>
+      <c r="N5" t="n">
         <v>72383.20046482542</v>
-      </c>
-      <c r="G5" t="n">
-        <v>72383.20046482542</v>
-      </c>
-      <c r="H5" t="n">
-        <v>72383.20046482542</v>
-      </c>
-      <c r="I5" t="n">
-        <v>72383.20046482542</v>
-      </c>
-      <c r="J5" t="n">
-        <v>72383.20046482541</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77750.06218842967</v>
-      </c>
-      <c r="L5" t="n">
-        <v>72383.20046482542</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72383.20046482542</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322146.0705274247</v>
+        <v>-379954.7699333013</v>
       </c>
       <c r="C6" t="n">
-        <v>-336514.9672406889</v>
+        <v>-229692.8153552615</v>
       </c>
       <c r="D6" t="n">
-        <v>-296936.8821086035</v>
+        <v>-212322.5199160478</v>
       </c>
       <c r="E6" t="n">
-        <v>-209755.1746345806</v>
+        <v>-323503.4431022618</v>
       </c>
       <c r="F6" t="n">
-        <v>-230276.890677273</v>
+        <v>-107764.0865456212</v>
       </c>
       <c r="G6" t="n">
-        <v>-132923.271312676</v>
+        <v>-107764.0865456212</v>
       </c>
       <c r="H6" t="n">
-        <v>-132923.271312676</v>
+        <v>-107764.0865456212</v>
       </c>
       <c r="I6" t="n">
-        <v>-132923.271312676</v>
+        <v>-107764.0865456212</v>
       </c>
       <c r="J6" t="n">
-        <v>-140279.7351610674</v>
+        <v>-239230.1428687911</v>
       </c>
       <c r="K6" t="n">
-        <v>-194515.2041148303</v>
+        <v>-121601.7957229855</v>
       </c>
       <c r="L6" t="n">
-        <v>-185763.4805355133</v>
+        <v>-149969.9735148274</v>
       </c>
       <c r="M6" t="n">
-        <v>-242478.090719146</v>
+        <v>-278697.0421308337</v>
       </c>
       <c r="N6" t="n">
-        <v>-191746.5245525057</v>
+        <v>-132923.2713126761</v>
       </c>
       <c r="O6" t="n">
         <v>-132923.271312676</v>
       </c>
       <c r="P6" t="n">
-        <v>-132923.2713126761</v>
+        <v>-132923.271312676</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>35.67460137263963</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="C4" t="n">
-        <v>227.7864062905906</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>901.0189303605408</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="C4" t="n">
-        <v>199.6700961577709</v>
+        <v>53.76623813902353</v>
       </c>
       <c r="D4" t="n">
-        <v>233.6134994697436</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>439.6190246002066</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
-        <v>240.1664709886201</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281954</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="K4" t="n">
-        <v>337.2686123814668</v>
+        <v>53.76623813902353</v>
       </c>
       <c r="L4" t="n">
-        <v>96.0149832460479</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.6190246002066</v>
+        <v>584.9575882335665</v>
       </c>
       <c r="N4" t="n">
-        <v>240.1664709886198</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6700961577709</v>
+        <v>53.76623813902353</v>
       </c>
       <c r="L4" t="n">
-        <v>233.6134994697436</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.6190246002066</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
-        <v>240.1664709886201</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27439,13 +27439,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>133.726262638184</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.531113795253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,22 +27540,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5672950116773</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0268463503655</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>42.6407902879925</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27600,10 +27600,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.3144946621678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>194.8453163962423</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>193.9307641630304</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>186.1705529936447</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.98495401896122</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>4.095730177743633</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.94354176135909</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>98.53017056953176</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>49.59619772410815</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>44.3174734986215</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>22.13019988286422</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>113.7764673242282</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>128.1989031233065</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>150.0045900020172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.67460137263961</v>
+        <v>1.488742207417174e-12</v>
       </c>
       <c r="K16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30411,7 +30411,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="M40" t="n">
-        <v>35.6746013726393</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N40" t="n">
         <v>35.67460137263963</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263922</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263919</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263965</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
   </sheetData>
@@ -34702,25 +34702,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="N2" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>482.1600971997395</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>19.45843602451198</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,19 +34787,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11631013281968</v>
+        <v>229.2028281348286</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>502.4615749765706</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>26.98029760220071</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>80.64197819891814</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>227.7864062905906</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>99.83914251935198</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P5" t="n">
-        <v>227.7864062905906</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>227.7864062905906</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>227.7864062905906</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>227.7864062905906</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0610535496456</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>227.7864062905906</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>227.7864062905906</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>227.7864062905906</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>160.5108664160635</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>227.7864062905906</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>443.4649875463285</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,34 +35246,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35337,7 +35337,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>901.0189303605408</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N11" t="n">
-        <v>767.7903023421966</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>901.0189303605408</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>568.6485759184646</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35653,10 +35653,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>342.0648638204181</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>487.2320584543432</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.74665008391034</v>
+        <v>58.07204871127222</v>
       </c>
       <c r="K16" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>209.6341483296213</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>93.74665008391034</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391506</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>197.4321207605197</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.74665008391034</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>460.8086364284002</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.264186512592</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.74665008391034</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>190.1300714498405</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.74665008391034</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,22 +37075,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>342.0648638204181</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>342.0648638204181</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37385,7 +37385,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>993.3118296884085</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>342.0648638204171</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,10 +37561,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>301.6549796954494</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37707,7 +37707,7 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M40" t="n">
-        <v>430.8117680092563</v>
+        <v>430.8117680092566</v>
       </c>
       <c r="N40" t="n">
         <v>416.9791578130798</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37792,10 +37792,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>181.3159231454222</v>
       </c>
       <c r="P41" t="n">
-        <v>409.3341936747263</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37871,16 +37871,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008390994</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38023,22 +38023,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>2.658189532691051</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>634.6913501810429</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
@@ -38181,7 +38181,7 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M46" t="n">
-        <v>430.8117680092562</v>
+        <v>430.8117680092566</v>
       </c>
       <c r="N46" t="n">
         <v>416.9791578130798</v>
